--- a/A dog chasing cars/DanClark/CODELLIGENT/Formularios2  - Casos de Uso (Textual).xlsx
+++ b/A dog chasing cars/DanClark/CODELLIGENT/Formularios2  - Casos de Uso (Textual).xlsx
@@ -8,24 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\AP3\A dog chasing cars\DanClark\CODELLIGENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0912E9-29DF-4274-80DE-7AE98552A716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96EFE6E-3CAA-46BE-AE69-31AEABDEBDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -66,22 +73,94 @@
     <t>Usuario</t>
   </si>
   <si>
-    <t>El usuario ve 3 botones (ABM) ligados a la grilla 1. Cuando hace el alta, ingresa en un TextBox el nombre del cliente. El otro Textbox (deshabilitado para edición) genera un código de legajo en forma automática.</t>
-  </si>
-  <si>
-    <t>El usuario ve una lista (grilla 1) generada automáticamente en la que solo puede elegir el cliente. En la grilla ve Legajo y Cliente.</t>
-  </si>
-  <si>
     <t>Cliente</t>
   </si>
   <si>
-    <t>El usuario ve en pantalla un listado (grilla 2) en la que se listan los cobros pendientes del cliente seleccionado en grilla 1. El listado muestra los datos de alta de cobros: cliente, tipo de cobro, código de cobro, nombre del cobro, fecha de vencimiento del cobro, e importe del cobro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usuario elige cliente de la grilla 1. De esta forma, asigna un cobro a un cliente. Elige las opciones de cobro: define el tipo (radio) normal y especial, ingresa código, nombre (del cobro), fecha de vencimiento, e importe. No tiene opción de Modifica o Eliminar un cobro. [A los fines de prueba, la fecha de inicio se puede cambiar]. </t>
-  </si>
-  <si>
-    <t>El usuario tiene conectado a la grilla 2 (aparte del botón de Alta de Cobro) un botón para Recibir Pago. Al apretarlo...</t>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Si bien no hay control de usuarios, el usuario ve, al arrancar la aplicación, 2 controles asociados al formulario:
+- Un encabezado (Label) enunciando "Sistema de Cobranzas"
+- Un DatePicker prominente con un texto: "Indique la fecha de hoy" (sobre este punto, ver caso de uso Realizar Alta Cobros)</t>
+  </si>
+  <si>
+    <t>[ Esta lista agrega lo que sale de grilla 2 ]
+El usuario ve un Label "Grilla 3: Cobros cancelados del cliente" y un Datagridview.
+En esta grilla 3, el usuario no ve ningún control asociado.
+El usuario ve esta grilla 3, similar a la grilla 2, que agrega Recargo (por retraso) y Total:
+- Cliente
+- Tipo de cobro
+- Código de cobro
+- Nombre del cobro
+- Fecha de vencimiento del cobro
+- Importe del cobro
+- Recargo
+- Total a pagar</t>
+  </si>
+  <si>
+    <t>El usuario ve un Datagridview con un Label "Grilla 2: Cobros pendientes del cliente".
+Asociado a grilla 2, el usuario ve dentro de un Groupbox "Altas y Recepciones de Pagos" con 2 Buttons (Alta, Pagar) + 1 Label (vacío).
+El usuario tiene conectado a la grilla 2:
+-Botón de Alta de Cobro
+- Botón para Recibir Pago
+- Label para informar Importe Total &gt; $10mil (manejado por evento)
+Cuando pulsa Recibir Pago, le sale un MessageBox (Aceptar, Cancelar) listando: Importe cobrado, Recargo, Tota a Pagar (si el Total a Pagar &gt; $10mil, el Label informa de esta situación). 
+[ Si acepta el MessageBox, el cobro sale de la lista de pendientes (grilla 2) y se lista en 3 listas de cancelados (grilla 3, grilla 4, grilla 5). ]</t>
+  </si>
+  <si>
+    <t>El usuario ve un Datagridview con un Label "Grilla 2: Cobros pendientes del cliente".
+Asociado a grilla 2, el usuario ve dentro de un Groupbox "Altas y Recepciones de Pagos" con 2 Buttons (Alta, Pagar) + 1 Label (vacío).
+El usuario ve en pantalla un listado (grilla 2) en la que se listan los cobros pendientes del cliente seleccionado en grilla 1. El listado muestra los datos de alta de cobros:
+- Cliente
+- Tipo de cobro
+- Código de cobro
+- Nombre del cobro
+- Fecha de vencimiento del cobro
+- Importe del cobro</t>
+  </si>
+  <si>
+    <t>El usuario ve un Datagridview con un Label "Grilla 2: Cobros pendientes del cliente".
+Asociado a grilla 2, el usuario ve dentro de un Groupbox "Altas y Recepciones de Pagos" con 2 Buttons (Alta, Pagar) + 1 Label (vacío).
+*** { A los fines de prueba, la fecha de inicio se puede cambiar, para ello, el usuario ve un DatePicker para seleccionar "la fecha de hoy" } ***
+Usuario elige cliente de la grilla 1. De esta forma, asigna un cobro a un cliente. Elige las opciones de cobro: define el tipo (radio) normal y especial, código (Textbox, automático), nombre del cobro (Textbox, automático), fecha de vencimiento (Listbox, cantidad de meses), e importe (Textbox).
+No tiene opción Modificar o Eliminar un cobro.
+Sale un diálogo de confirmación para terminar.</t>
+  </si>
+  <si>
+    <t>El usuario ve un Datagridview con un Label "Grilla 1: Listado de clientes".
+Asociado a grilla 1, el usuario ve dentro de un Groupbox 3 Button + 2 Textbox, y el Groupbox indica claramente "ABM (Altas Bajas Modificaciones) de Clientes".
+El usuario ve (grilla 1, generada automáticamente) una lista de clientes con los siguientes detalles: Legajo y Nombre.</t>
+  </si>
+  <si>
+    <t>El usuario ve un Label "Grilla 1: Listado de clientes" con un Datagridview (grilla 1).
+Asociado a grilla 1, el usuario ve dentro de un Groupbox 3 Button + 2 Textbox, y el Groupbox indica claramente "ABM (Altas Bajas Modificaciones) de Clientes".
+El usuario ve 3 botones (ABM) ligados a la grilla 1 + 2 Texbox que se actualizan según el usuario selecciona los clientes enlistados.
+Cuando hace el alta, ingresa en un TextBox el nombre del cliente.  El otro Textbox (deshabilitado para edición) genera un código de legajo en forma automática.
+Para la baja, el usuario primero señala en la grilla 1 al cliente a elmiminar.
+Para la modificación, el usuario elige al cliente de la grilla 1.
+En todos los casos (ABM), se muestra un diálogo de confirmación para finalizar.</t>
+  </si>
+  <si>
+    <t>[ Esta lista agrega lo que sale de grilla 2 ]
+El usuario ve un Label "Grilla 4: Cobros cancelados del cliente" con un Datagridview y asociado, un Groupbox "Ver ordenado" y 2 Radio (Ascendente, Descendente).
+Conectada a la esta grilla 4, el Usuario ve 2 radio para elegir el modo de ordenamiento (ascendente o descendente) dentro de un Groupbox.
+El usuario ve esta grilla 4, similar a la grilla 2, que agrega Recargo (por retraso) y Total:
+- Cliente
+- Tipo de cobro
+- Código de cobro
+- Nombre del cobro
+- Fecha de vencimiento del cobro
+- Importe del cobro
+- Recargo
+- Total a pagar</t>
+  </si>
+  <si>
+    <t>[ Esta lista sintetiza la grilla 3 ]
+El usuario ve un Label "Grilla 5: Cobros cancelados del cliente" y un Datagridview.
+En esta grilla 5, el usuario no ve ningún control asociado.
+El usuario ve en esta grilla 5:
+- Cliente
+- Total a pagar</t>
   </si>
 </sst>
 </file>
@@ -159,12 +238,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{37EE3755-308D-4D4C-92AD-FF467247505E}" name="Tabla1" displayName="Tabla1" ref="A1:D9" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{37EE3755-308D-4D4C-92AD-FF467247505E}" name="Tabla1" displayName="Tabla1" ref="A1:D10" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{84288417-3133-445F-96F2-F7A1B79120ED}" name="NOMBRE" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{7774DE3E-62EA-4F68-A56F-2AD8E33C5B5A}" name="ACTOR" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{C6A844F0-8BAE-49E5-BD83-4633698C6F7C}" name="DESCRIPCIÓN" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{AD20982F-7041-41C6-9293-C917A0341AE6}" name="CLASES CANDIDATAS" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{84288417-3133-445F-96F2-F7A1B79120ED}" name="NOMBRE" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{7774DE3E-62EA-4F68-A56F-2AD8E33C5B5A}" name="ACTOR" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{C6A844F0-8BAE-49E5-BD83-4633698C6F7C}" name="DESCRIPCIÓN" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{AD20982F-7041-41C6-9293-C917A0341AE6}" name="CLASES CANDIDATAS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -433,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,59 +540,59 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -523,35 +602,53 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/A dog chasing cars/DanClark/CODELLIGENT/Formularios2  - Casos de Uso (Textual).xlsx
+++ b/A dog chasing cars/DanClark/CODELLIGENT/Formularios2  - Casos de Uso (Textual).xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\AP3\A dog chasing cars\DanClark\CODELLIGENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96EFE6E-3CAA-46BE-AE69-31AEABDEBDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F69D00-722A-496B-AD61-0D6AF75B45F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Hoja1!$1:$1</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -43,9 +46,6 @@
     <t>DESCRIPCIÓN</t>
   </si>
   <si>
-    <t>CLASES CANDIDATAS</t>
-  </si>
-  <si>
     <t>Realizar ABM clientes</t>
   </si>
   <si>
@@ -73,19 +73,60 @@
     <t>Usuario</t>
   </si>
   <si>
-    <t>Cliente</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>Si bien no hay control de usuarios, el usuario ve, al arrancar la aplicación, 2 controles asociados al formulario:
-- Un encabezado (Label) enunciando "Sistema de Cobranzas"
-- Un DatePicker prominente con un texto: "Indique la fecha de hoy" (sobre este punto, ver caso de uso Realizar Alta Cobros)</t>
+    <t>El usuario ve un Datagridview (2 columnas) con un Label "Grilla 1: Listado de clientes".
+Asociado a grilla 1, el usuario ve dentro de un Groupbox 3 Button + 2 Textbox, y el Groupbox indica claramente "ABM (Altas Bajas Modificaciones) de Clientes".
+El usuario ve (grilla 1, generada automáticamente) una lista de clientes con los siguientes detalles: Legajo y Nombre.</t>
+  </si>
+  <si>
+    <t>El usuario ve un Datagridview (5 columnas) con un Label "Grilla 2: Cobros pendientes del cliente".
+Asociado a grilla 2, el usuario ve dentro de un Groupbox "Altas y Recepciones de Pagos" con:
+- 2 radio (Modo normal, Modo especial)
+- Label (Código) y Textbox (automático)
+- Label (Nombre) y Textbox (automático)
+- Label (Vencimiento) y Datepicker
+- Label (Importe) y Texbox (automático)
+- Label (para información) sobre 2 Buttons (Alta, Pagar)
+*** { A los fines de prueba, la fecha de inicio se puede cambiar, para ello, el usuario ve un DatePicker para seleccionar "la fecha de hoy" } ***
+Usuario elige cliente de la grilla 1. De esta forma, asigna un cobro a un cliente. Elige las opciones de cobro: define el tipo (radio) normal y especial, código (Textbox, automático), nombre del cobro (Textbox, automático), fecha de vencimiento (Listbox, cantidad de meses), e importe (Textbox).
+No tiene opción Modificar o Eliminar un cobro.
+Sale un diálogo de confirmación para terminar.</t>
+  </si>
+  <si>
+    <t>El usuario ve un Datagridview  (5 columnas) con un Label "Grilla 2: Cobros pendientes del cliente".
+Asociado a grilla 2, el usuario ve dentro de un Groupbox "Altas y Recepciones de Pagos" con:
+- 2 radio (Modo normal, Modo especial)
+- Label (Código) y Textbox (automático)
+- Label (Nombre) y Textbox (automático)
+- Label (Vencimiento) y Datepicker
+- Label (Importe) y Texbox (automático)
+- Label (para información) sobre 2 Buttons (Alta, Pagar)
+El usuario ve en pantalla un listado (grilla 2) en la que se listan los cobros pendientes del cliente seleccionado en grilla 1. El listado muestra los datos de alta de cobros:
+- Cliente
+- Tipo de cobro
+- Código de cobro
+- Nombre del cobro
+- Fecha de vencimiento del cobro
+- Importe del cobro</t>
+  </si>
+  <si>
+    <t>El usuario ve un Datagridview (5 columnas) con un Label "Grilla 2: Cobros pendientes del cliente".
+Asociado a grilla 2, el usuario ve dentro de un Groupbox "Altas y Recepciones de Pagos" con:
+- 2 radio (Modo normal, Modo especial)
+- Label (Código) y Textbox (automático)
+- Label (Nombre) y Textbox (automático)
+- Label (Vencimiento) y Datepicker
+- Label (Importe) y Texbox (automático)
+- Label (para información) sobre 2 Buttons (Alta, Pagar)
+El usuario tiene conectado a la grilla 2:
+-Botón de Alta de Cobro
+- Botón para Recibir Pago
+- Label para informar Importe Total &gt; $10mil (manejado por evento)
+Cuando pulsa Recibir Pago, le sale un MessageBox (Aceptar, Cancelar) listando: Importe cobrado, Recargo, Tota a Pagar (si el Total a Pagar &gt; $10mil, el Label informa de esta situación). 
+[ Si acepta el MessageBox, el cobro sale de la lista de pendientes (grilla 2) y se lista en 3 listas de cancelados (grilla 3, grilla 4, grilla 5). ]</t>
   </si>
   <si>
     <t>[ Esta lista agrega lo que sale de grilla 2 ]
-El usuario ve un Label "Grilla 3: Cobros cancelados del cliente" y un Datagridview.
+El usuario ve un Label "Grilla 3: Cobros cancelados del cliente" y un Datagridview (7 columnas).
 En esta grilla 3, el usuario no ve ningún control asociado.
 El usuario ve esta grilla 3, similar a la grilla 2, que agrega Recargo (por retraso) y Total:
 - Cliente
@@ -98,51 +139,8 @@
 - Total a pagar</t>
   </si>
   <si>
-    <t>El usuario ve un Datagridview con un Label "Grilla 2: Cobros pendientes del cliente".
-Asociado a grilla 2, el usuario ve dentro de un Groupbox "Altas y Recepciones de Pagos" con 2 Buttons (Alta, Pagar) + 1 Label (vacío).
-El usuario tiene conectado a la grilla 2:
--Botón de Alta de Cobro
-- Botón para Recibir Pago
-- Label para informar Importe Total &gt; $10mil (manejado por evento)
-Cuando pulsa Recibir Pago, le sale un MessageBox (Aceptar, Cancelar) listando: Importe cobrado, Recargo, Tota a Pagar (si el Total a Pagar &gt; $10mil, el Label informa de esta situación). 
-[ Si acepta el MessageBox, el cobro sale de la lista de pendientes (grilla 2) y se lista en 3 listas de cancelados (grilla 3, grilla 4, grilla 5). ]</t>
-  </si>
-  <si>
-    <t>El usuario ve un Datagridview con un Label "Grilla 2: Cobros pendientes del cliente".
-Asociado a grilla 2, el usuario ve dentro de un Groupbox "Altas y Recepciones de Pagos" con 2 Buttons (Alta, Pagar) + 1 Label (vacío).
-El usuario ve en pantalla un listado (grilla 2) en la que se listan los cobros pendientes del cliente seleccionado en grilla 1. El listado muestra los datos de alta de cobros:
-- Cliente
-- Tipo de cobro
-- Código de cobro
-- Nombre del cobro
-- Fecha de vencimiento del cobro
-- Importe del cobro</t>
-  </si>
-  <si>
-    <t>El usuario ve un Datagridview con un Label "Grilla 2: Cobros pendientes del cliente".
-Asociado a grilla 2, el usuario ve dentro de un Groupbox "Altas y Recepciones de Pagos" con 2 Buttons (Alta, Pagar) + 1 Label (vacío).
-*** { A los fines de prueba, la fecha de inicio se puede cambiar, para ello, el usuario ve un DatePicker para seleccionar "la fecha de hoy" } ***
-Usuario elige cliente de la grilla 1. De esta forma, asigna un cobro a un cliente. Elige las opciones de cobro: define el tipo (radio) normal y especial, código (Textbox, automático), nombre del cobro (Textbox, automático), fecha de vencimiento (Listbox, cantidad de meses), e importe (Textbox).
-No tiene opción Modificar o Eliminar un cobro.
-Sale un diálogo de confirmación para terminar.</t>
-  </si>
-  <si>
-    <t>El usuario ve un Datagridview con un Label "Grilla 1: Listado de clientes".
-Asociado a grilla 1, el usuario ve dentro de un Groupbox 3 Button + 2 Textbox, y el Groupbox indica claramente "ABM (Altas Bajas Modificaciones) de Clientes".
-El usuario ve (grilla 1, generada automáticamente) una lista de clientes con los siguientes detalles: Legajo y Nombre.</t>
-  </si>
-  <si>
-    <t>El usuario ve un Label "Grilla 1: Listado de clientes" con un Datagridview (grilla 1).
-Asociado a grilla 1, el usuario ve dentro de un Groupbox 3 Button + 2 Textbox, y el Groupbox indica claramente "ABM (Altas Bajas Modificaciones) de Clientes".
-El usuario ve 3 botones (ABM) ligados a la grilla 1 + 2 Texbox que se actualizan según el usuario selecciona los clientes enlistados.
-Cuando hace el alta, ingresa en un TextBox el nombre del cliente.  El otro Textbox (deshabilitado para edición) genera un código de legajo en forma automática.
-Para la baja, el usuario primero señala en la grilla 1 al cliente a elmiminar.
-Para la modificación, el usuario elige al cliente de la grilla 1.
-En todos los casos (ABM), se muestra un diálogo de confirmación para finalizar.</t>
-  </si>
-  <si>
     <t>[ Esta lista agrega lo que sale de grilla 2 ]
-El usuario ve un Label "Grilla 4: Cobros cancelados del cliente" con un Datagridview y asociado, un Groupbox "Ver ordenado" y 2 Radio (Ascendente, Descendente).
+El usuario ve un Label "Grilla 4: Cobros cancelados del cliente" con un Datagridview (7 columnas) y asociado, un Groupbox "Ver ordenado" y 2 Radio (Ascendente, Descendente).
 Conectada a la esta grilla 4, el Usuario ve 2 radio para elegir el modo de ordenamiento (ascendente o descendente) dentro de un Groupbox.
 El usuario ve esta grilla 4, similar a la grilla 2, que agrega Recargo (por retraso) y Total:
 - Cliente
@@ -156,11 +154,24 @@
   </si>
   <si>
     <t>[ Esta lista sintetiza la grilla 3 ]
-El usuario ve un Label "Grilla 5: Cobros cancelados del cliente" y un Datagridview.
+El usuario ve un Label "Grilla 5: Cobros cancelados del cliente" y un Datagridview (2 columnas).
 En esta grilla 5, el usuario no ve ningún control asociado.
 El usuario ve en esta grilla 5:
 - Cliente
 - Total a pagar</t>
+  </si>
+  <si>
+    <t>Clases candidatas</t>
+  </si>
+  <si>
+    <t>El usuario ve un Label "Grilla 1: Listado de clientes" con un Datagridview (grilla 1: 2 columnas). Asociado a grilla 1, el usuario ve dentro de un Groupbox "ABM (Altas Bajas Modificaciones) de Clientes":
+- 3 Button (Alta, Baja, Modificación)
+- Label (Legajo) y Textbox (automáticamente, cargado en Load)
+-Label (Nombre) y Textbox
+Cuando hace el alta, el Textbox Legajo genera un código en forma automática. El usuario ingresa en el otro Textbox el Nombre.
+Para la baja, el usuario primero señala en la grilla 1 al cliente a elmiminar.
+Para la modificación, el usuario elige al cliente de la grilla 1.
+En todos los casos (ABM), se muestra un diálogo de confirmación para finalizar.</t>
   </si>
 </sst>
 </file>
@@ -196,10 +207,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -207,7 +221,7 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -238,14 +252,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{37EE3755-308D-4D4C-92AD-FF467247505E}" name="Tabla1" displayName="Tabla1" ref="A1:D10" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{37EE3755-308D-4D4C-92AD-FF467247505E}" name="Tabla1" displayName="Tabla1" ref="A1:D9" totalsRowShown="0" headerRowDxfId="0" dataDxfId="5">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{84288417-3133-445F-96F2-F7A1B79120ED}" name="NOMBRE" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{7774DE3E-62EA-4F68-A56F-2AD8E33C5B5A}" name="ACTOR" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{C6A844F0-8BAE-49E5-BD83-4633698C6F7C}" name="DESCRIPCIÓN" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{AD20982F-7041-41C6-9293-C917A0341AE6}" name="CLASES CANDIDATAS" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{84288417-3133-445F-96F2-F7A1B79120ED}" name="NOMBRE" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{7774DE3E-62EA-4F68-A56F-2AD8E33C5B5A}" name="ACTOR" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{C6A844F0-8BAE-49E5-BD83-4633698C6F7C}" name="DESCRIPCIÓN" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{AD20982F-7041-41C6-9293-C917A0341AE6}" name="Clases candidatas" dataDxfId="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
 </file>
 
@@ -512,10 +526,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,137 +540,125 @@
     <col min="1" max="1" width="40.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="80.7109375" customWidth="1"/>
-    <col min="4" max="4" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="300" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="285" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="315" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="225" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="255" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="1"/>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.39370078740157483"/>
+  <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/A dog chasing cars/DanClark/CODELLIGENT/Formularios2  - Casos de Uso (Textual).xlsx
+++ b/A dog chasing cars/DanClark/CODELLIGENT/Formularios2  - Casos de Uso (Textual).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\AP3\A dog chasing cars\DanClark\CODELLIGENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F69D00-722A-496B-AD61-0D6AF75B45F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C49635D-6C85-417C-A8AF-7C122C3B573D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -221,7 +221,7 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -236,7 +236,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -252,12 +252,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{37EE3755-308D-4D4C-92AD-FF467247505E}" name="Tabla1" displayName="Tabla1" ref="A1:D9" totalsRowShown="0" headerRowDxfId="0" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{37EE3755-308D-4D4C-92AD-FF467247505E}" name="Tabla1" displayName="Tabla1" ref="A1:D9" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{84288417-3133-445F-96F2-F7A1B79120ED}" name="NOMBRE" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{7774DE3E-62EA-4F68-A56F-2AD8E33C5B5A}" name="ACTOR" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{C6A844F0-8BAE-49E5-BD83-4633698C6F7C}" name="DESCRIPCIÓN" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{AD20982F-7041-41C6-9293-C917A0341AE6}" name="Clases candidatas" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{84288417-3133-445F-96F2-F7A1B79120ED}" name="NOMBRE" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{7774DE3E-62EA-4F68-A56F-2AD8E33C5B5A}" name="ACTOR" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{C6A844F0-8BAE-49E5-BD83-4633698C6F7C}" name="DESCRIPCIÓN" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{AD20982F-7041-41C6-9293-C917A0341AE6}" name="Clases candidatas" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -532,7 +532,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/A dog chasing cars/DanClark/CODELLIGENT/Formularios2  - Casos de Uso (Textual).xlsx
+++ b/A dog chasing cars/DanClark/CODELLIGENT/Formularios2  - Casos de Uso (Textual).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\AP3\A dog chasing cars\DanClark\CODELLIGENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C49635D-6C85-417C-A8AF-7C122C3B573D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47376DD5-1FA9-47B8-A660-A0C698D6FC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -73,25 +73,6 @@
     <t>Usuario</t>
   </si>
   <si>
-    <t>El usuario ve un Datagridview (2 columnas) con un Label "Grilla 1: Listado de clientes".
-Asociado a grilla 1, el usuario ve dentro de un Groupbox 3 Button + 2 Textbox, y el Groupbox indica claramente "ABM (Altas Bajas Modificaciones) de Clientes".
-El usuario ve (grilla 1, generada automáticamente) una lista de clientes con los siguientes detalles: Legajo y Nombre.</t>
-  </si>
-  <si>
-    <t>El usuario ve un Datagridview (5 columnas) con un Label "Grilla 2: Cobros pendientes del cliente".
-Asociado a grilla 2, el usuario ve dentro de un Groupbox "Altas y Recepciones de Pagos" con:
-- 2 radio (Modo normal, Modo especial)
-- Label (Código) y Textbox (automático)
-- Label (Nombre) y Textbox (automático)
-- Label (Vencimiento) y Datepicker
-- Label (Importe) y Texbox (automático)
-- Label (para información) sobre 2 Buttons (Alta, Pagar)
-*** { A los fines de prueba, la fecha de inicio se puede cambiar, para ello, el usuario ve un DatePicker para seleccionar "la fecha de hoy" } ***
-Usuario elige cliente de la grilla 1. De esta forma, asigna un cobro a un cliente. Elige las opciones de cobro: define el tipo (radio) normal y especial, código (Textbox, automático), nombre del cobro (Textbox, automático), fecha de vencimiento (Listbox, cantidad de meses), e importe (Textbox).
-No tiene opción Modificar o Eliminar un cobro.
-Sale un diálogo de confirmación para terminar.</t>
-  </si>
-  <si>
     <t>El usuario ve un Datagridview  (5 columnas) con un Label "Grilla 2: Cobros pendientes del cliente".
 Asociado a grilla 2, el usuario ve dentro de un Groupbox "Altas y Recepciones de Pagos" con:
 - 2 radio (Modo normal, Modo especial)
@@ -164,14 +145,35 @@
     <t>Clases candidatas</t>
   </si>
   <si>
-    <t>El usuario ve un Label "Grilla 1: Listado de clientes" con un Datagridview (grilla 1: 2 columnas). Asociado a grilla 1, el usuario ve dentro de un Groupbox "ABM (Altas Bajas Modificaciones) de Clientes":
-- 3 Button (Alta, Baja, Modificación)
+    <t>El usuario ve un Groupbox "Grilla 1: Listado de clientes" con un Datagridview (grilla 1 de 2 columnas). Asociado a grilla 1:
 - Label (Legajo) y Textbox (automáticamente, cargado en Load)
 -Label (Nombre) y Textbox
+- 3 Button (Alta, Baja, Modificación)
 Cuando hace el alta, el Textbox Legajo genera un código en forma automática. El usuario ingresa en el otro Textbox el Nombre.
 Para la baja, el usuario primero señala en la grilla 1 al cliente a elmiminar.
 Para la modificación, el usuario elige al cliente de la grilla 1.
 En todos los casos (ABM), se muestra un diálogo de confirmación para finalizar.</t>
+  </si>
+  <si>
+    <t>El usuario ve un Groupbox "Grilla 1: Listado de clientes" con un Datagridview (grilla 1 de 2 columnas). Asociado a grilla 1:
+- Label (Legajo) y Textbox (automáticamente, cargado en Load)
+-Label (Nombre) y Textbox
+- 3 Button (Alta, Baja, Modificación)
+El usuario ve (grilla 1, generada automáticamente) una lista de clientes con los siguientes detalles: Legajo y Nombre.</t>
+  </si>
+  <si>
+    <t>El usuario ve un Datagridview (5 columnas) con un Label "Grilla 2: Cobros pendientes del cliente".
+Asociado a grilla 2, el usuario ve dentro de un Groupbox "Altas y Recepciones de Pagos" con:
+- 2 radio (Tipo normal, Tipo especial)
+- Label (Código) y Textbox (automático)
+- Label (Nombre) y Textbox (automático)
+- Label (Vencimiento) y Datepicker
+- Label (Importe) y Texbox (automático)
+- Label (para información) sobre 2 Buttons (Alta, Pagar)
+*** { A los fines de prueba, la fecha de inicio se puede cambiar, para ello, el usuario ve un DatePicker para seleccionar "la fecha de hoy" } ***
+Usuario elige cliente de la grilla 1. De esta forma, asigna un cobro a un cliente. Elige las opciones de cobro: define el tipo (radio) normal y especial, código (Textbox, automático), nombre del cobro (Textbox, automático), fecha de vencimiento (Listbox, cantidad de meses), e importe (Textbox).
+No tiene opción Modificar o Eliminar un cobro.
+Sale un diálogo de confirmación para terminar.</t>
   </si>
 </sst>
 </file>
@@ -531,8 +533,8 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,10 +556,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -565,11 +567,11 @@
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -577,7 +579,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -589,7 +591,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -601,7 +603,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -613,7 +615,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -625,7 +627,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -637,7 +639,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -649,7 +651,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1"/>
     </row>

--- a/A dog chasing cars/DanClark/CODELLIGENT/Formularios2  - Casos de Uso (Textual).xlsx
+++ b/A dog chasing cars/DanClark/CODELLIGENT/Formularios2  - Casos de Uso (Textual).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\AP3\A dog chasing cars\DanClark\CODELLIGENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47376DD5-1FA9-47B8-A660-A0C698D6FC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2DC77D-B97C-4C00-98AC-DD459571EEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,39 +73,6 @@
     <t>Usuario</t>
   </si>
   <si>
-    <t>El usuario ve un Datagridview  (5 columnas) con un Label "Grilla 2: Cobros pendientes del cliente".
-Asociado a grilla 2, el usuario ve dentro de un Groupbox "Altas y Recepciones de Pagos" con:
-- 2 radio (Modo normal, Modo especial)
-- Label (Código) y Textbox (automático)
-- Label (Nombre) y Textbox (automático)
-- Label (Vencimiento) y Datepicker
-- Label (Importe) y Texbox (automático)
-- Label (para información) sobre 2 Buttons (Alta, Pagar)
-El usuario ve en pantalla un listado (grilla 2) en la que se listan los cobros pendientes del cliente seleccionado en grilla 1. El listado muestra los datos de alta de cobros:
-- Cliente
-- Tipo de cobro
-- Código de cobro
-- Nombre del cobro
-- Fecha de vencimiento del cobro
-- Importe del cobro</t>
-  </si>
-  <si>
-    <t>El usuario ve un Datagridview (5 columnas) con un Label "Grilla 2: Cobros pendientes del cliente".
-Asociado a grilla 2, el usuario ve dentro de un Groupbox "Altas y Recepciones de Pagos" con:
-- 2 radio (Modo normal, Modo especial)
-- Label (Código) y Textbox (automático)
-- Label (Nombre) y Textbox (automático)
-- Label (Vencimiento) y Datepicker
-- Label (Importe) y Texbox (automático)
-- Label (para información) sobre 2 Buttons (Alta, Pagar)
-El usuario tiene conectado a la grilla 2:
--Botón de Alta de Cobro
-- Botón para Recibir Pago
-- Label para informar Importe Total &gt; $10mil (manejado por evento)
-Cuando pulsa Recibir Pago, le sale un MessageBox (Aceptar, Cancelar) listando: Importe cobrado, Recargo, Tota a Pagar (si el Total a Pagar &gt; $10mil, el Label informa de esta situación). 
-[ Si acepta el MessageBox, el cobro sale de la lista de pendientes (grilla 2) y se lista en 3 listas de cancelados (grilla 3, grilla 4, grilla 5). ]</t>
-  </si>
-  <si>
     <t>[ Esta lista agrega lo que sale de grilla 2 ]
 El usuario ve un Label "Grilla 3: Cobros cancelados del cliente" y un Datagridview (7 columnas).
 En esta grilla 3, el usuario no ve ningún control asociado.
@@ -145,35 +112,19 @@
     <t>Clases candidatas</t>
   </si>
   <si>
-    <t>El usuario ve un Groupbox "Grilla 1: Listado de clientes" con un Datagridview (grilla 1 de 2 columnas). Asociado a grilla 1:
-- Label (Legajo) y Textbox (automáticamente, cargado en Load)
--Label (Nombre) y Textbox
-- 3 Button (Alta, Baja, Modificación)
-Cuando hace el alta, el Textbox Legajo genera un código en forma automática. El usuario ingresa en el otro Textbox el Nombre.
-Para la baja, el usuario primero señala en la grilla 1 al cliente a elmiminar.
-Para la modificación, el usuario elige al cliente de la grilla 1.
-En todos los casos (ABM), se muestra un diálogo de confirmación para finalizar.</t>
-  </si>
-  <si>
-    <t>El usuario ve un Groupbox "Grilla 1: Listado de clientes" con un Datagridview (grilla 1 de 2 columnas). Asociado a grilla 1:
-- Label (Legajo) y Textbox (automáticamente, cargado en Load)
--Label (Nombre) y Textbox
-- 3 Button (Alta, Baja, Modificación)
-El usuario ve (grilla 1, generada automáticamente) una lista de clientes con los siguientes detalles: Legajo y Nombre.</t>
-  </si>
-  <si>
-    <t>El usuario ve un Datagridview (5 columnas) con un Label "Grilla 2: Cobros pendientes del cliente".
-Asociado a grilla 2, el usuario ve dentro de un Groupbox "Altas y Recepciones de Pagos" con:
-- 2 radio (Tipo normal, Tipo especial)
-- Label (Código) y Textbox (automático)
-- Label (Nombre) y Textbox (automático)
-- Label (Vencimiento) y Datepicker
-- Label (Importe) y Texbox (automático)
-- Label (para información) sobre 2 Buttons (Alta, Pagar)
-*** { A los fines de prueba, la fecha de inicio se puede cambiar, para ello, el usuario ve un DatePicker para seleccionar "la fecha de hoy" } ***
-Usuario elige cliente de la grilla 1. De esta forma, asigna un cobro a un cliente. Elige las opciones de cobro: define el tipo (radio) normal y especial, código (Textbox, automático), nombre del cobro (Textbox, automático), fecha de vencimiento (Listbox, cantidad de meses), e importe (Textbox).
-No tiene opción Modificar o Eliminar un cobro.
-Sale un diálogo de confirmación para terminar.</t>
+    <t>El usuario ve un Groupbox "Grilla 1: Listado de clientes" con un Datagridview (grilla 1 de 2 columnas) que genera automáticamente una lista de clientes con los siguientes detalles: Legajo y Nombre.</t>
+  </si>
+  <si>
+    <t>El usuario ve un Groupbox "Grilla 1: Listado de clientes" con un Datagridview (grilla 1 de 2 columnas) en el que cuenta con dos campos (Legajo, Nombre) para ingresar los datos de alta de cliente. También ve una lista de clientes en la que seleccionando una fila, puede editar los datos (se reflejan en los campos) pulsando otro botón, o eliminar el cliente pulsando un 3er botón. En todos los casos (ABM), se muestra un diálogo de confirmación.</t>
+  </si>
+  <si>
+    <t>El usuario ve en un Groupbox "Grilla 2: Cobros pendientes del cliente" un Datagridview  (5 columnas) en el que se listan automáticamente los cobros pendientes del cliente seleccionado en grilla 1.</t>
+  </si>
+  <si>
+    <t>El usuario ve en un Groupbox "Grilla 2: Cobros pendientes del cliente" 2 Radio + 3 Textbox + 1 Datepicker para ingresar los datos de un cobro que se asignará al cliente seleccionado en Grilla 1. Para completar el alta debe apretar un botón. Habrá un diálogo de confirmación.</t>
+  </si>
+  <si>
+    <t>El usuario ve en un Groupbox "Grilla 2: Cobros pendientes del cliente" una lista de cobros pendientes y un botón Pagar deshabilitado. Si selecciona una fila, un botón de pago se habilitará y podrá pulsarlo. Habrá un diálogo de confirmación. Luego de confirmado, el botón se deshabilitará de nuevo y el registro desaparecerá del listado y pasará a las Grillas 3, 4 y 5.</t>
   </si>
 </sst>
 </file>
@@ -533,8 +484,8 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,58 +507,58 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" ht="300" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" ht="285" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="315" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -615,7 +566,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -627,7 +578,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -639,7 +590,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -651,7 +602,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1"/>
     </row>

--- a/A dog chasing cars/DanClark/CODELLIGENT/Formularios2  - Casos de Uso (Textual).xlsx
+++ b/A dog chasing cars/DanClark/CODELLIGENT/Formularios2  - Casos de Uso (Textual).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\AP3\A dog chasing cars\DanClark\CODELLIGENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2DC77D-B97C-4C00-98AC-DD459571EEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4DE343-560B-41F1-B637-24A4E9B19C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -67,64 +67,55 @@
     <t>Listar cobros cancelados de cliente (Ordenable, Icomparable, Radio)</t>
   </si>
   <si>
-    <t>Listar cobros cancelados de cliente: solo Nombre y Total (con LINQ, tipos anónimos)</t>
-  </si>
-  <si>
     <t>Usuario</t>
   </si>
   <si>
-    <t>[ Esta lista agrega lo que sale de grilla 2 ]
-El usuario ve un Label "Grilla 3: Cobros cancelados del cliente" y un Datagridview (7 columnas).
-En esta grilla 3, el usuario no ve ningún control asociado.
-El usuario ve esta grilla 3, similar a la grilla 2, que agrega Recargo (por retraso) y Total:
-- Cliente
-- Tipo de cobro
-- Código de cobro
-- Nombre del cobro
-- Fecha de vencimiento del cobro
-- Importe del cobro
-- Recargo
-- Total a pagar</t>
-  </si>
-  <si>
-    <t>[ Esta lista agrega lo que sale de grilla 2 ]
-El usuario ve un Label "Grilla 4: Cobros cancelados del cliente" con un Datagridview (7 columnas) y asociado, un Groupbox "Ver ordenado" y 2 Radio (Ascendente, Descendente).
-Conectada a la esta grilla 4, el Usuario ve 2 radio para elegir el modo de ordenamiento (ascendente o descendente) dentro de un Groupbox.
-El usuario ve esta grilla 4, similar a la grilla 2, que agrega Recargo (por retraso) y Total:
-- Cliente
-- Tipo de cobro
-- Código de cobro
-- Nombre del cobro
-- Fecha de vencimiento del cobro
-- Importe del cobro
-- Recargo
-- Total a pagar</t>
-  </si>
-  <si>
-    <t>[ Esta lista sintetiza la grilla 3 ]
-El usuario ve un Label "Grilla 5: Cobros cancelados del cliente" y un Datagridview (2 columnas).
-En esta grilla 5, el usuario no ve ningún control asociado.
-El usuario ve en esta grilla 5:
-- Cliente
-- Total a pagar</t>
-  </si>
-  <si>
-    <t>Clases candidatas</t>
-  </si>
-  <si>
     <t>El usuario ve un Groupbox "Grilla 1: Listado de clientes" con un Datagridview (grilla 1 de 2 columnas) que genera automáticamente una lista de clientes con los siguientes detalles: Legajo y Nombre.</t>
   </si>
   <si>
-    <t>El usuario ve un Groupbox "Grilla 1: Listado de clientes" con un Datagridview (grilla 1 de 2 columnas) en el que cuenta con dos campos (Legajo, Nombre) para ingresar los datos de alta de cliente. También ve una lista de clientes en la que seleccionando una fila, puede editar los datos (se reflejan en los campos) pulsando otro botón, o eliminar el cliente pulsando un 3er botón. En todos los casos (ABM), se muestra un diálogo de confirmación.</t>
-  </si>
-  <si>
     <t>El usuario ve en un Groupbox "Grilla 2: Cobros pendientes del cliente" un Datagridview  (5 columnas) en el que se listan automáticamente los cobros pendientes del cliente seleccionado en grilla 1.</t>
   </si>
   <si>
-    <t>El usuario ve en un Groupbox "Grilla 2: Cobros pendientes del cliente" 2 Radio + 3 Textbox + 1 Datepicker para ingresar los datos de un cobro que se asignará al cliente seleccionado en Grilla 1. Para completar el alta debe apretar un botón. Habrá un diálogo de confirmación.</t>
-  </si>
-  <si>
     <t>El usuario ve en un Groupbox "Grilla 2: Cobros pendientes del cliente" una lista de cobros pendientes y un botón Pagar deshabilitado. Si selecciona una fila, un botón de pago se habilitará y podrá pulsarlo. Habrá un diálogo de confirmación. Luego de confirmado, el botón se deshabilitará de nuevo y el registro desaparecerá del listado y pasará a las Grillas 3, 4 y 5.</t>
+  </si>
+  <si>
+    <t>El usuario ve en un Groupbox "Grilla 2: Cobros pendientes del cliente" 2 Radio + 3 Textbox + 1 Datepicker para ingresar los datos de un cobro que se asignará al cliente seleccionado en Grilla 1. Para completar el alta debe apretar un botón (que permanece habilitado). Habrá un diálogo de confirmación.</t>
+  </si>
+  <si>
+    <t>El usuario ve un Groupbox "Grilla 3: Cobros cancelados del cliente" y un Datagridview (8 columnas) con detalles de la cancelación (que salieron de la grilla 2): cliente, tipo, código, nombre, vencimiento, importe, recargo y total. En esta grilla 3, el usuario no ve ningún control asociado.</t>
+  </si>
+  <si>
+    <t>El usuario ve un Groupbox "Grilla 4: Cobros cancelados del cliente" con un Datagridview (8 columnas) y asociados, 2 Radio (Ascendente, Descendente). En la lista, al igual que Grilla 3, el registro expulsado de Grilla 2 (cobros pendientes). Según lo que elija en los Radio, la lista se ordena ascendente o descendentemente. Los datos de la lista son los mismos que los de la Grilla 3,</t>
+  </si>
+  <si>
+    <t>El usuario ve un Groupbox "Grilla 5: Cobros cancelados del cliente" y un Datagridview (2 columnas). En esta grilla 5, el usuario no ve ningún control asociado y la lista solo enlista: Cliente y Total a pagar.</t>
+  </si>
+  <si>
+    <t>cliente, listado de clientes</t>
+  </si>
+  <si>
+    <t>CLASES CANDIDATAS</t>
+  </si>
+  <si>
+    <t>El usuario ve un Groupbox "Grilla 1: Listado de clientes" con un Datagridview (grilla 1 de 2 columnas) en el que cuenta con dos campos (Legajo, Nombre) para ingresar los datos de alta de cliente. Mientras este botón de alta está habilitado, los de modificación y elminación permanecen deshabilitados. Si selecciona una fila de la lista de clientes, puede editar (modificar, elimiar) los datos (se reflejan en los campos) pulsando 1 de 2 botones pertinentes (que se habilitan al seleccionar la fila mientras el botón de alta se deshabilita). Finalizada la edición, los botones de edición se deshabilitan y el de altas se vuelve a habilitar. En todos los casos se muestra un diálogo de confirmación.</t>
+  </si>
+  <si>
+    <t>Listar cobros cancelados de cliente (con LINQ, tipos anónimos)</t>
+  </si>
+  <si>
+    <t>cliente</t>
+  </si>
+  <si>
+    <t>cobros, cobros normales, cobros especiales</t>
+  </si>
+  <si>
+    <t>pagos, pagos pendientes, pagos cancelados</t>
+  </si>
+  <si>
+    <t>listado de pagos cancelados</t>
+  </si>
+  <si>
+    <t>listado depagos pendientes</t>
   </si>
 </sst>
 </file>
@@ -210,7 +201,7 @@
     <tableColumn id="1" xr3:uid="{84288417-3133-445F-96F2-F7A1B79120ED}" name="NOMBRE" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{7774DE3E-62EA-4F68-A56F-2AD8E33C5B5A}" name="ACTOR" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{C6A844F0-8BAE-49E5-BD83-4633698C6F7C}" name="DESCRIPCIÓN" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{AD20982F-7041-41C6-9293-C917A0341AE6}" name="Clases candidatas" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{AD20982F-7041-41C6-9293-C917A0341AE6}" name="CLASES CANDIDATAS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -484,19 +475,19 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="80.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -507,7 +498,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -515,101 +506,117 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
